--- a/biology/Botanique/Amphibolis/Amphibolis.xlsx
+++ b/biology/Botanique/Amphibolis/Amphibolis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphibolis  est une herbe marine, genre de plantes monocotylédones de la famille des Cymodoceaceae.
-Le nom générique Amphibolis dérive du grec « amphibol » (ambigu)[1],[2], pour qualifier une plante aux caractéristiques équivoques, ou de « amphibolos » (signifiant « à double pointe  »), à cause de la forme des feuilles terminées par deux pointes caractéristiques.
+Le nom générique Amphibolis dérive du grec « amphibol » (ambigu) pour qualifier une plante aux caractéristiques équivoques, ou de « amphibolos » (signifiant « à double pointe  »), à cause de la forme des feuilles terminées par deux pointes caractéristiques.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Cymodoceaceae, dont les caractères distinctifs sont les suivants[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Cymodoceaceae, dont les caractères distinctifs sont les suivants :
 Feuilles portant une gaine à leur base, une ligule à la jonction de la gaine et du limbe,
 Présence de nombreuses cellules à tanin sur les feuilles,
 Feuilles plates,
@@ -549,12 +563,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 août 2010)[4], World Checklist of Selected Plant Families (WCSP)  (2 août 2010)[5] et World Register of Marine Species                               (2 Aug 2010)[6]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 août 2010), World Checklist of Selected Plant Families (WCSP)  (2 août 2010) et World Register of Marine Species                               (2 Aug 2010):
 Amphibolis antarctica (Labill.) Asch., 1867    [ou (Labill.) Sonder &amp; Asch. ex Asch., 1868 ]
 Amphibolis griffithii (J.M.Black) Hartog, 1970
-Selon NCBI  (2 août 2010)[7] :
+Selon NCBI  (2 août 2010) :
 Amphibolis antarctica</t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amphibolis antarctica
 Amphibolis bicornis C.Agardh, 1822
@@ -628,10 +646,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphibolis antarctica est largement répandue de  Shark Bay (Australie occidentale) jusqu'aux côtes situées à l'est de Melbourne. On la trouve aussi sur les côtes nord de Tasmanie.
-Amphibolis griffithii est une espèce des côtes d'Australie occidentale et sud australiennes[3].
+Amphibolis griffithii est une espèce des côtes d'Australie occidentale et sud australiennes.
 </t>
         </is>
       </c>
@@ -661,6 +681,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
